--- a/biology/Zoologie/Corrachia/Corrachia.xlsx
+++ b/biology/Zoologie/Corrachia/Corrachia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corrachia est un genre de lépidoptères (papillons) de la famille des Riodinidae qui ne comprend qu'une seule espèce, Corrachia leucoplaga.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Corrachia a été créé par William Schaus en 1913[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Corrachia a été créé par William Schaus en 1913.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (13 avril 2021)[1] :
-Corrachia leucoplaga Schaus, 1913 - présent au Costa Rica - espèce type[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (13 avril 2021) :
+Corrachia leucoplaga Schaus, 1913 - présent au Costa Rica - espèce type</t>
         </is>
       </c>
     </row>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) William Schaus, « New Species of Rhopalocera from Costa Rica », Proceedings of the Zoological Society of London, Londres, ZSL, vol. 83, no 3,‎ 1913, p. 339–367 (ISSN 0370-2774, OCLC 1779524, BNF 32843178, DOI 10.1111/J.1469-7998.1913.TB06133.X, lire en ligne)</t>
         </is>
